--- a/big-data/big-data-capstone/project/data/beer_n_ARK Yeosu Night Ale.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_ARK Yeosu Night Ale.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jmgreenuk(17,115)
+          <t>jmgreenuk(17,130)
 🇲🇾Kuala Lumpur, Malaysia
 3.3August 3, 2022
 330ml bottle from the Beer Bank, Kuala Lumpur. Poured a  hazy light brown colour with a mostly lasting frothy off-white head. The flavour is moderate sweet and bitter, with a smooth,…
